--- a/resource/40.design/440.development/[Saturn]449.crawling/25글루코사민MSM.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/25글루코사민MSM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="19" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>삼품명</t>
   </si>
@@ -94,60 +94,6 @@
   </si>
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg</t>
-  </si>
-  <si>
-    <t>소스내추럴스 MSM 1000mg 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001222/1000001222_main_054.jpg</t>
-  </si>
-  <si>
-    <t>닥터스베스트 MSM 1,500mg 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002818/1000002818_main_052.jpg</t>
-  </si>
-  <si>
-    <t>닥터스베스트 글루코사민 콘드로이친 MSM 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002815/1000002815_main_085.jpg</t>
-  </si>
-  <si>
-    <t>소스내추럴스 MSM 파우더 35 oz (1000g)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/27/1000001238/1464312800554s0.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 MSM 리포솜 로션 80oz (237ml)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000766/1000000766_main_019.jpg</t>
-  </si>
-  <si>
-    <t>솔가 MSM 식이유황 1000mg 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000477/1000000477_main_029.jpg</t>
-  </si>
-  <si>
-    <t>솔가 글루코사민 MSM 컴플렉스 120정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000547/1000000547_main_024.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 글루코사민 콘드로이친 MSM 180캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002900/1000002900_main_084.jpg</t>
-  </si>
-  <si>
-    <t>솔가 글루코사민 MSM 콤플렉스 60정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000543/1433903480257s0.jpg</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1207,103 +1155,31 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1">
-        <v>14500</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>35600</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41300</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1">
-        <v>12200</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>22800</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>19800</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>38500</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>13600</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
